--- a/biology/Botanique/Nepenthes_inermis/Nepenthes_inermis.xlsx
+++ b/biology/Botanique/Nepenthes_inermis/Nepenthes_inermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes inermis est une plante insectivore endémique de l'île de Sumatra en Indonésie. Cette espèce pousse sur les contreforts occidentaux de Sumatra à une altitude de 1500 m à 2600 m.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante atteint 5 m de long dans la nature. Ces feuilles pièges sont exceptionnelles dans leur genre puisqu'elles ne possèdent pas de péristome. La taille des urnes avoisine au maximum les 10 cm de long pour 5 cm de large.
 </t>
